--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/15/seed1/result_data_RandomForest.xlsx
@@ -491,10 +491,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-11.88869999999999</v>
+        <v>-12.8112</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.002600000000008</v>
+        <v>-8.196400000000004</v>
       </c>
     </row>
     <row r="5">
@@ -519,7 +519,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.8336</v>
+        <v>-11.8075</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -533,7 +533,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.02030000000001</v>
+        <v>-12.7054</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -564,7 +564,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.196499999999994</v>
+        <v>-7.427299999999991</v>
       </c>
     </row>
     <row r="10">
@@ -606,7 +606,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.891699999999997</v>
+        <v>-5.777999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -659,7 +659,7 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-14.49079999999999</v>
+        <v>-14.58959999999999</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -676,7 +676,7 @@
         <v>-14.84</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.422599999999996</v>
+        <v>-8.615799999999991</v>
       </c>
     </row>
     <row r="18">
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.984999999999992</v>
+        <v>-8.864999999999995</v>
       </c>
     </row>
     <row r="19">
@@ -704,7 +704,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.667499999999992</v>
+        <v>-8.418599999999994</v>
       </c>
     </row>
     <row r="20">
@@ -715,10 +715,10 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.34810000000001</v>
+        <v>-11.829</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.208599999999995</v>
+        <v>-8.483799999999997</v>
       </c>
     </row>
     <row r="21">
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.606499999999996</v>
+        <v>-7.815099999999997</v>
       </c>
     </row>
     <row r="27">
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.0399</v>
+        <v>-12.9487</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -841,7 +841,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.69670000000001</v>
+        <v>-11.75870000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -872,7 +872,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.331899999999993</v>
+        <v>-7.403699999999992</v>
       </c>
     </row>
     <row r="32">
@@ -883,7 +883,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.2978</v>
+        <v>-12.5565</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -984,7 +984,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.274399999999991</v>
+        <v>-8.320899999999988</v>
       </c>
     </row>
     <row r="40">
@@ -995,10 +995,10 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-11.98720000000001</v>
+        <v>-11.6697</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.724199999999991</v>
+        <v>-8.132299999999994</v>
       </c>
     </row>
     <row r="41">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-7.831299999999992</v>
+        <v>-7.567299999999999</v>
       </c>
     </row>
     <row r="42">
@@ -1026,7 +1026,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.233099999999991</v>
+        <v>-7.840399999999997</v>
       </c>
     </row>
     <row r="43">
@@ -1040,7 +1040,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.515300000000005</v>
+        <v>-7.186100000000005</v>
       </c>
     </row>
     <row r="44">
@@ -1079,7 +1079,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.72729999999999</v>
+        <v>-14.72809999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.749000000000002</v>
+        <v>-7.563299999999999</v>
       </c>
     </row>
     <row r="48">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.211199999999998</v>
+        <v>-7.205499999999997</v>
       </c>
     </row>
     <row r="49">
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.4228</v>
+        <v>-11.6097</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.4182</v>
+        <v>-11.5241</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1233,7 +1233,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.38479999999999</v>
+        <v>-14.4439</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1261,7 +1261,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.96650000000001</v>
+        <v>-12.96760000000001</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1303,7 +1303,7 @@
         <v>4.28</v>
       </c>
       <c r="C62" t="n">
-        <v>-14.50839999999999</v>
+        <v>-14.49969999999999</v>
       </c>
       <c r="D62" t="n">
         <v>-8.5</v>
@@ -1320,7 +1320,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-6.623599999999994</v>
+        <v>-6.610699999999993</v>
       </c>
     </row>
     <row r="64">
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-6.875699999999994</v>
+        <v>-6.931299999999994</v>
       </c>
     </row>
     <row r="65">
@@ -1359,7 +1359,7 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.2146</v>
+        <v>-11.6609</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-10.93050000000001</v>
+        <v>-10.99660000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1471,7 +1471,7 @@
         <v>7.45</v>
       </c>
       <c r="C74" t="n">
-        <v>-11.60680000000001</v>
+        <v>-12.03580000000001</v>
       </c>
       <c r="D74" t="n">
         <v>-8.550000000000001</v>
@@ -1502,7 +1502,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.638599999999996</v>
+        <v>-7.4958</v>
       </c>
     </row>
     <row r="77">
@@ -1572,7 +1572,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.548499999999999</v>
+        <v>-7.620199999999999</v>
       </c>
     </row>
     <row r="82">
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.173899999999998</v>
+        <v>-8.296399999999998</v>
       </c>
     </row>
     <row r="90">
@@ -1723,7 +1723,7 @@
         <v>4.82</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.36760000000001</v>
+        <v>-10.4024</v>
       </c>
       <c r="D92" t="n">
         <v>-6.84</v>
@@ -1754,7 +1754,7 @@
         <v>-9.49</v>
       </c>
       <c r="D94" t="n">
-        <v>-5.982199999999999</v>
+        <v>-5.883499999999998</v>
       </c>
     </row>
     <row r="95">
@@ -1835,7 +1835,7 @@
         <v>4.73</v>
       </c>
       <c r="C100" t="n">
-        <v>-11.5951</v>
+        <v>-11.6673</v>
       </c>
       <c r="D100" t="n">
         <v>-9.33</v>
